--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Stanford\projects\general\PowerPoint-auto-coding\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2367B89-39A0-4C96-85CE-BEAFFF382486}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F80355F-287E-454B-8B9E-AFEC2AA4CA9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="90">
   <si>
     <t>file</t>
   </si>
@@ -286,16 +286,25 @@
     <t>savetoexcel as helper function</t>
   </si>
   <si>
+    <t>studyname_20210111_01</t>
+  </si>
+  <si>
+    <t>studyname_20201216_01</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
     <t>in_progress</t>
   </si>
   <si>
-    <t>studyname_20210111_01</t>
-  </si>
-  <si>
-    <t>studyname_20201216_01</t>
-  </si>
-  <si>
-    <t>location</t>
+    <t>studyname_20210111_02</t>
+  </si>
+  <si>
+    <t>blah</t>
+  </si>
+  <si>
+    <t>automating file</t>
   </si>
 </sst>
 </file>
@@ -781,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP17"/>
+  <dimension ref="A1:AP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -831,7 +840,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>4</v>
@@ -870,7 +879,7 @@
         <v>49</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S1" s="13" t="s">
         <v>11</v>
@@ -1025,7 +1034,7 @@
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1046,7 +1055,7 @@
         <v>30</v>
       </c>
       <c r="M3" s="6" t="str">
-        <f t="shared" ref="M3:M17" si="0">IF(COUNTIF(N3:Q3,"yes")&gt;0,"yes",IF(COUNTBLANK(N3:Q3)&gt;0,"","no"))</f>
+        <f t="shared" ref="M3:M10" si="0">IF(COUNTIF(N3:Q3,"yes")&gt;0,"yes",IF(COUNTBLANK(N3:Q3)&gt;0,"","no"))</f>
         <v/>
       </c>
       <c r="R3" s="15" t="s">
@@ -1616,7 +1625,7 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1702,45 +1711,89 @@
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="M11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="M12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="M13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="M14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="M15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="M16" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="13:13" x14ac:dyDescent="0.35">
-      <c r="M17" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44207</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V11" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" t="s">
+        <v>30</v>
+      </c>
+      <c r="X11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>6</v>
+      </c>
+      <c r="AI11">
+        <v>3</v>
+      </c>
+      <c r="AJ11">
+        <v>3</v>
+      </c>
+      <c r="AK11" s="19">
+        <v>3</v>
+      </c>
+      <c r="AL11" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM11" s="20">
+        <v>4</v>
+      </c>
+      <c r="AN11" s="20">
+        <v>2</v>
+      </c>
+      <c r="AO11" s="21">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Stanford\projects\general\PowerPoint-auto-coding\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F80355F-287E-454B-8B9E-AFEC2AA4CA9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75F5663-AAF5-494F-A838-373DFAC58640}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Stanford\projects\general\PowerPoint-auto-coding\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75F5663-AAF5-494F-A838-373DFAC58640}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F45E2CF-CAE9-428D-B2CA-16A3F79E0DE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38640" yWindow="10140" windowWidth="19530" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>file</t>
   </si>
@@ -305,6 +305,12 @@
   </si>
   <si>
     <t>automating file</t>
+  </si>
+  <si>
+    <t>measure11_highPerf</t>
+  </si>
+  <si>
+    <t>measure11_lowPerf</t>
   </si>
 </sst>
 </file>
@@ -790,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP11"/>
+  <dimension ref="A1:AR12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="AI10" workbookViewId="0">
+      <selection activeCell="AK14" sqref="AK14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -821,12 +827,13 @@
     <col min="34" max="34" width="24.81640625" customWidth="1"/>
     <col min="35" max="35" width="24.90625" customWidth="1"/>
     <col min="36" max="36" width="26.08984375" customWidth="1"/>
-    <col min="37" max="37" width="8.7265625" style="19"/>
-    <col min="38" max="40" width="8.7265625" style="20"/>
-    <col min="41" max="41" width="8.7265625" style="21"/>
+    <col min="37" max="38" width="24.90625" customWidth="1"/>
+    <col min="39" max="39" width="8.7265625" style="19"/>
+    <col min="40" max="42" width="8.7265625" style="20"/>
+    <col min="43" max="43" width="8.7265625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -935,26 +942,32 @@
       <c r="AJ1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AK1" s="16" t="s">
+      <c r="AK1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="17" t="s">
+      <c r="AN1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="AM1" s="17" t="s">
+      <c r="AO1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="AN1" s="17" t="s">
+      <c r="AP1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="AO1" s="18" t="s">
+      <c r="AQ1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AR1" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1013,26 +1026,26 @@
       <c r="AF2" t="s">
         <v>33</v>
       </c>
-      <c r="AK2" s="19">
+      <c r="AM2" s="19">
         <v>2</v>
       </c>
-      <c r="AL2" s="20" t="s">
+      <c r="AN2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AM2" s="20">
-        <v>3</v>
-      </c>
-      <c r="AN2" s="20">
+      <c r="AO2" s="20">
+        <v>3</v>
+      </c>
+      <c r="AP2" s="20">
         <v>4</v>
       </c>
-      <c r="AO2" s="21">
+      <c r="AQ2" s="21">
         <v>5</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AR2" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -1085,23 +1098,23 @@
       <c r="AF3" t="s">
         <v>45</v>
       </c>
-      <c r="AK3" s="19">
+      <c r="AM3" s="19">
         <v>1</v>
       </c>
-      <c r="AL3" s="20" t="s">
+      <c r="AN3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="AM3" s="20">
+      <c r="AO3" s="20">
         <v>1</v>
       </c>
-      <c r="AN3" s="20">
+      <c r="AP3" s="20">
         <v>4</v>
       </c>
-      <c r="AO3" s="21">
+      <c r="AQ3" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1163,23 +1176,23 @@
       <c r="AF4" t="s">
         <v>63</v>
       </c>
-      <c r="AK4" s="19">
+      <c r="AM4" s="19">
         <v>1</v>
       </c>
-      <c r="AL4" s="20" t="s">
+      <c r="AN4" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="AM4" s="20">
+      <c r="AO4" s="20">
         <v>4</v>
       </c>
-      <c r="AN4" s="20">
+      <c r="AP4" s="20">
         <v>2</v>
       </c>
-      <c r="AO4" s="21">
+      <c r="AQ4" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -1256,23 +1269,23 @@
       <c r="AJ5">
         <v>2</v>
       </c>
-      <c r="AK5" s="19">
-        <v>3</v>
-      </c>
-      <c r="AL5" s="20" t="s">
+      <c r="AM5" s="19">
+        <v>3</v>
+      </c>
+      <c r="AN5" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="AM5" s="20">
+      <c r="AO5" s="20">
         <v>4</v>
       </c>
-      <c r="AN5" s="20">
+      <c r="AP5" s="20">
         <v>2</v>
       </c>
-      <c r="AO5" s="21">
+      <c r="AQ5" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -1346,23 +1359,23 @@
       <c r="AJ6">
         <v>2</v>
       </c>
-      <c r="AK6" s="19">
-        <v>3</v>
-      </c>
-      <c r="AL6" s="20" t="s">
+      <c r="AM6" s="19">
+        <v>3</v>
+      </c>
+      <c r="AN6" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="AM6" s="20">
-        <v>3</v>
-      </c>
-      <c r="AN6" s="20">
+      <c r="AO6" s="20">
+        <v>3</v>
+      </c>
+      <c r="AP6" s="20">
         <v>2</v>
       </c>
-      <c r="AO6" s="21">
+      <c r="AQ6" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -1436,23 +1449,23 @@
       <c r="AJ7">
         <v>2</v>
       </c>
-      <c r="AK7" s="19">
-        <v>3</v>
-      </c>
-      <c r="AL7" s="20" t="s">
+      <c r="AM7" s="19">
+        <v>3</v>
+      </c>
+      <c r="AN7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AM7" s="20">
-        <v>3</v>
-      </c>
-      <c r="AN7" s="20">
+      <c r="AO7" s="20">
+        <v>3</v>
+      </c>
+      <c r="AP7" s="20">
         <v>1</v>
       </c>
-      <c r="AO7" s="21">
+      <c r="AQ7" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -1520,23 +1533,23 @@
       <c r="AJ8">
         <v>2</v>
       </c>
-      <c r="AK8" s="19">
+      <c r="AM8" s="19">
         <v>1</v>
       </c>
-      <c r="AL8" s="20" t="s">
+      <c r="AN8" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="AM8" s="20">
-        <v>3</v>
-      </c>
-      <c r="AN8" s="20">
+      <c r="AO8" s="20">
+        <v>3</v>
+      </c>
+      <c r="AP8" s="20">
         <v>4</v>
       </c>
-      <c r="AO8" s="21">
+      <c r="AQ8" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -1607,23 +1620,23 @@
       <c r="AJ9">
         <v>3</v>
       </c>
-      <c r="AK9" s="19">
+      <c r="AM9" s="19">
         <v>2</v>
       </c>
-      <c r="AL9" s="20" t="s">
+      <c r="AN9" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="AM9" s="20">
+      <c r="AO9" s="20">
         <v>1</v>
       </c>
-      <c r="AN9" s="20">
-        <v>3</v>
-      </c>
-      <c r="AO9" s="21">
+      <c r="AP9" s="20">
+        <v>3</v>
+      </c>
+      <c r="AQ9" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -1694,23 +1707,23 @@
       <c r="AJ10">
         <v>1</v>
       </c>
-      <c r="AK10" s="19">
-        <v>3</v>
-      </c>
-      <c r="AL10" s="20" t="s">
+      <c r="AM10" s="19">
+        <v>3</v>
+      </c>
+      <c r="AN10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AM10" s="20">
+      <c r="AO10" s="20">
         <v>1</v>
       </c>
-      <c r="AN10" s="20">
+      <c r="AP10" s="20">
         <v>5</v>
       </c>
-      <c r="AO10" s="21">
+      <c r="AQ10" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -1780,21 +1793,24 @@
       <c r="AJ11">
         <v>3</v>
       </c>
-      <c r="AK11" s="19">
-        <v>3</v>
-      </c>
-      <c r="AL11" s="20" t="s">
+      <c r="AM11" s="19">
+        <v>3</v>
+      </c>
+      <c r="AN11" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="AM11" s="20">
+      <c r="AO11" s="20">
         <v>4</v>
       </c>
-      <c r="AN11" s="20">
+      <c r="AP11" s="20">
         <v>2</v>
       </c>
-      <c r="AO11" s="21">
-        <v>3</v>
-      </c>
+      <c r="AQ11" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="C12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Stanford\projects\general\PowerPoint-auto-coding\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\misc ac\slides and images\PowerPoint-auto-coding\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F45E2CF-CAE9-428D-B2CA-16A3F79E0DE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68715D7A-0730-4E3F-A096-CBB3717B8387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38640" yWindow="10140" windowWidth="19530" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="99">
   <si>
     <t>file</t>
   </si>
@@ -103,9 +103,6 @@
     <t>fun</t>
   </si>
   <si>
-    <t>MZ</t>
-  </si>
-  <si>
     <t>Zoom</t>
   </si>
   <si>
@@ -311,6 +308,30 @@
   </si>
   <si>
     <t>measure11_lowPerf</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>ob001</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>video was laggy</t>
   </si>
 </sst>
 </file>
@@ -378,7 +399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -487,11 +508,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -516,6 +548,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR12"/>
+  <dimension ref="A1:AR11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI10" workbookViewId="0">
-      <selection activeCell="AK14" sqref="AK14"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AQ4" sqref="AQ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -814,23 +849,26 @@
     <col min="11" max="11" width="13" style="7" customWidth="1"/>
     <col min="12" max="12" width="8.7265625" style="3"/>
     <col min="13" max="13" width="8.7265625" style="6"/>
-    <col min="14" max="17" width="8.7265625" style="5"/>
-    <col min="18" max="18" width="11.90625" style="15" customWidth="1"/>
-    <col min="19" max="19" width="8.7265625" style="2"/>
-    <col min="20" max="20" width="11.7265625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="8.7265625" style="2"/>
-    <col min="24" max="29" width="17.08984375" customWidth="1"/>
-    <col min="30" max="30" width="11.26953125" customWidth="1"/>
-    <col min="31" max="31" width="13.1796875" customWidth="1"/>
-    <col min="32" max="32" width="16.453125" customWidth="1"/>
-    <col min="33" max="33" width="27.1796875" customWidth="1"/>
-    <col min="34" max="34" width="24.81640625" customWidth="1"/>
-    <col min="35" max="35" width="24.90625" customWidth="1"/>
-    <col min="36" max="36" width="26.08984375" customWidth="1"/>
-    <col min="37" max="38" width="24.90625" customWidth="1"/>
-    <col min="39" max="39" width="8.7265625" style="19"/>
-    <col min="40" max="42" width="8.7265625" style="20"/>
-    <col min="43" max="43" width="8.7265625" style="21"/>
+    <col min="14" max="15" width="10.90625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="19.36328125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="8.54296875" style="25" customWidth="1"/>
+    <col min="18" max="18" width="8.7265625" style="2"/>
+    <col min="19" max="19" width="11.7265625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="8.7265625" style="2"/>
+    <col min="23" max="28" width="17.08984375" customWidth="1"/>
+    <col min="29" max="29" width="11.26953125" customWidth="1"/>
+    <col min="30" max="30" width="13.1796875" customWidth="1"/>
+    <col min="31" max="31" width="16.453125" customWidth="1"/>
+    <col min="32" max="32" width="27.1796875" customWidth="1"/>
+    <col min="33" max="33" width="24.81640625" customWidth="1"/>
+    <col min="34" max="34" width="24.90625" customWidth="1"/>
+    <col min="35" max="35" width="26.08984375" customWidth="1"/>
+    <col min="36" max="37" width="24.90625" customWidth="1"/>
+    <col min="38" max="38" width="8.7265625" style="19"/>
+    <col min="39" max="41" width="8.7265625" style="20"/>
+    <col min="42" max="42" width="8.7265625" style="21"/>
+    <col min="43" max="43" width="33.54296875" customWidth="1"/>
+    <col min="44" max="44" width="11.90625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -847,7 +885,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>4</v>
@@ -856,7 +894,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>6</v>
@@ -871,37 +909,37 @@
         <v>9</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N1" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="P1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="Q1" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>86</v>
+      <c r="R1" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" s="13" t="s">
         <v>13</v>
       </c>
+      <c r="U1" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="V1" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="X1" s="8" t="s">
         <v>55</v>
@@ -919,57 +957,57 @@
         <v>59</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF1" s="8" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="AG1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AH1" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="AI1" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AJ1" s="8" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="AK1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AL1" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM1" s="16" t="s">
+      <c r="AL1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO1" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="AP1" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AR1" s="9" t="s">
-        <v>35</v>
+      <c r="AR1" s="14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -978,29 +1016,29 @@
         <v>44179</v>
       </c>
       <c r="D2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="M2" s="6" t="str">
         <f>IF(COUNTIF(N2:Q2,"yes")&gt;0,"yes",IF(COUNTBLANK(N2:Q2)&gt;0,"","no"))</f>
         <v/>
       </c>
       <c r="N2" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>51</v>
+        <v>76</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>27</v>
@@ -1008,13 +1046,13 @@
       <c r="T2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" t="s">
         <v>29</v>
       </c>
       <c r="V2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" t="s">
         <v>30</v>
       </c>
       <c r="AD2" t="s">
@@ -1023,31 +1061,31 @@
       <c r="AE2" t="s">
         <v>32</v>
       </c>
-      <c r="AF2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" s="19">
+      <c r="AL2" s="19">
         <v>2</v>
       </c>
-      <c r="AN2" s="20" t="s">
-        <v>26</v>
+      <c r="AM2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN2" s="20">
+        <v>3</v>
       </c>
       <c r="AO2" s="20">
-        <v>3</v>
-      </c>
-      <c r="AP2" s="20">
         <v>4</v>
       </c>
-      <c r="AQ2" s="21">
+      <c r="AP2" s="21">
         <v>5</v>
       </c>
-      <c r="AR2" s="4" t="s">
-        <v>77</v>
+      <c r="AQ2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR2" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1056,67 +1094,97 @@
         <v>44181</v>
       </c>
       <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
-        <v>23</v>
+      <c r="F3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="H3" s="4">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M3" s="6" t="str">
         <f t="shared" ref="M3:M10" si="0">IF(COUNTIF(N3:Q3,"yes")&gt;0,"yes",IF(COUNTBLANK(N3:Q3)&gt;0,"","no"))</f>
-        <v/>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>51</v>
+        <v>no</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="U3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" t="s">
         <v>29</v>
       </c>
       <c r="V3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC3" t="s">
         <v>30</v>
-      </c>
-      <c r="W3" t="s">
-        <v>25</v>
       </c>
       <c r="AD3" t="s">
         <v>31</v>
       </c>
       <c r="AE3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM3" s="19">
+        <v>44</v>
+      </c>
+      <c r="AL3" s="19">
         <v>1</v>
       </c>
-      <c r="AN3" s="20" t="s">
-        <v>44</v>
+      <c r="AM3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN3" s="20">
+        <v>1</v>
       </c>
       <c r="AO3" s="20">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="20">
         <v>4</v>
       </c>
-      <c r="AQ3" s="21">
+      <c r="AP3" s="21">
         <v>5</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR3" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1125,76 +1193,76 @@
         <v>44183</v>
       </c>
       <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="K4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="M4" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R4" s="15" t="s">
-        <v>51</v>
+      <c r="R4" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC4" t="s">
         <v>38</v>
       </c>
-      <c r="V4" t="s">
-        <v>30</v>
-      </c>
-      <c r="W4" t="s">
-        <v>30</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="AD4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE4" t="s">
         <v>62</v>
       </c>
-      <c r="Y4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AL4" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AF4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM4" s="19">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="20" t="s">
-        <v>44</v>
+      <c r="AN4" s="20">
+        <v>4</v>
       </c>
       <c r="AO4" s="20">
+        <v>2</v>
+      </c>
+      <c r="AP4" s="21">
         <v>4</v>
       </c>
-      <c r="AP4" s="20">
-        <v>2</v>
-      </c>
-      <c r="AQ4" s="21">
-        <v>4</v>
+      <c r="AR4" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1203,23 +1271,23 @@
         <v>44183</v>
       </c>
       <c r="D5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="K5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="L5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M5" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R5" s="15" t="s">
-        <v>51</v>
+      <c r="R5" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>27</v>
@@ -1227,67 +1295,67 @@
       <c r="T5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U5" s="2" t="s">
-        <v>29</v>
+      <c r="U5" t="s">
+        <v>24</v>
       </c>
       <c r="V5" t="s">
-        <v>25</v>
-      </c>
-      <c r="W5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>62</v>
+        <v>24</v>
+      </c>
+      <c r="X5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>61</v>
       </c>
       <c r="AA5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC5" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="AD5" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="AE5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>6</v>
+      </c>
+      <c r="AH5">
+        <v>4</v>
+      </c>
+      <c r="AI5">
+        <v>2</v>
+      </c>
+      <c r="AL5" s="19">
+        <v>3</v>
+      </c>
+      <c r="AM5" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="AF5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>6</v>
-      </c>
-      <c r="AI5">
+      <c r="AN5" s="20">
         <v>4</v>
       </c>
-      <c r="AJ5">
+      <c r="AO5" s="20">
         <v>2</v>
       </c>
-      <c r="AM5" s="19">
-        <v>3</v>
-      </c>
-      <c r="AN5" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO5" s="20">
-        <v>4</v>
-      </c>
-      <c r="AP5" s="20">
-        <v>2</v>
-      </c>
-      <c r="AQ5" s="21">
-        <v>3</v>
+      <c r="AP5" s="21">
+        <v>3</v>
+      </c>
+      <c r="AR5" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1296,23 +1364,23 @@
         <v>44183</v>
       </c>
       <c r="D6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
       <c r="K6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M6" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R6" s="15" t="s">
-        <v>51</v>
+      <c r="R6" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>27</v>
@@ -1320,64 +1388,64 @@
       <c r="T6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="U6" t="s">
         <v>29</v>
       </c>
       <c r="V6" t="s">
+        <v>24</v>
+      </c>
+      <c r="X6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC6" t="s">
         <v>30</v>
       </c>
-      <c r="W6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>62</v>
-      </c>
       <c r="AD6" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="AE6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AH6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI6">
-        <v>4</v>
-      </c>
-      <c r="AJ6">
         <v>2</v>
       </c>
-      <c r="AM6" s="19">
-        <v>3</v>
-      </c>
-      <c r="AN6" s="20" t="s">
-        <v>67</v>
+      <c r="AL6" s="19">
+        <v>3</v>
+      </c>
+      <c r="AM6" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN6" s="20">
+        <v>3</v>
       </c>
       <c r="AO6" s="20">
-        <v>3</v>
-      </c>
-      <c r="AP6" s="20">
         <v>2</v>
       </c>
-      <c r="AQ6" s="21">
-        <v>3</v>
+      <c r="AP6" s="21">
+        <v>3</v>
+      </c>
+      <c r="AR6" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1386,88 +1454,88 @@
         <v>44183</v>
       </c>
       <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M7" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R7" s="15" t="s">
-        <v>51</v>
+      <c r="R7" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" t="s">
         <v>29</v>
       </c>
       <c r="V7" t="s">
-        <v>30</v>
-      </c>
-      <c r="W7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>62</v>
+        <v>29</v>
+      </c>
+      <c r="X7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>61</v>
       </c>
       <c r="AC7" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s">
         <v>39</v>
       </c>
       <c r="AE7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
       </c>
       <c r="AG7">
+        <v>5</v>
+      </c>
+      <c r="AH7">
+        <v>4</v>
+      </c>
+      <c r="AI7">
+        <v>2</v>
+      </c>
+      <c r="AL7" s="19">
+        <v>3</v>
+      </c>
+      <c r="AM7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN7" s="20">
+        <v>3</v>
+      </c>
+      <c r="AO7" s="20">
         <v>1</v>
       </c>
-      <c r="AH7">
-        <v>5</v>
-      </c>
-      <c r="AI7">
-        <v>4</v>
-      </c>
-      <c r="AJ7">
+      <c r="AP7" s="21">
         <v>2</v>
       </c>
-      <c r="AM7" s="19">
-        <v>3</v>
-      </c>
-      <c r="AN7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AO7" s="20">
-        <v>3</v>
-      </c>
-      <c r="AP7" s="20">
-        <v>1</v>
-      </c>
-      <c r="AQ7" s="21">
-        <v>2</v>
+      <c r="AR7" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1476,82 +1544,82 @@
         <v>44204</v>
       </c>
       <c r="D8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M8" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R8" s="15" t="s">
-        <v>51</v>
+      <c r="R8" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="U8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" t="s">
         <v>29</v>
       </c>
       <c r="V8" t="s">
-        <v>30</v>
-      </c>
-      <c r="W8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>62</v>
+        <v>24</v>
+      </c>
+      <c r="X8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>38</v>
       </c>
       <c r="AD8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AH8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI8">
+        <v>2</v>
+      </c>
+      <c r="AL8" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN8" s="20">
+        <v>3</v>
+      </c>
+      <c r="AO8" s="20">
         <v>4</v>
       </c>
-      <c r="AJ8">
-        <v>2</v>
-      </c>
-      <c r="AM8" s="19">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO8" s="20">
-        <v>3</v>
-      </c>
-      <c r="AP8" s="20">
-        <v>4</v>
-      </c>
-      <c r="AQ8" s="21">
+      <c r="AP8" s="21">
         <v>5</v>
+      </c>
+      <c r="AR8" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1560,85 +1628,85 @@
         <v>44204</v>
       </c>
       <c r="D9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
       <c r="K9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M9" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R9" s="15" t="s">
-        <v>51</v>
+      <c r="R9" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="U9" t="s">
         <v>29</v>
       </c>
       <c r="V9" t="s">
+        <v>24</v>
+      </c>
+      <c r="W9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC9" t="s">
         <v>30</v>
       </c>
-      <c r="W9" t="s">
-        <v>25</v>
-      </c>
-      <c r="X9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>62</v>
-      </c>
       <c r="AD9" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="AE9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="AF9">
+        <v>5</v>
       </c>
       <c r="AG9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AH9">
+        <v>3</v>
+      </c>
+      <c r="AI9">
+        <v>3</v>
+      </c>
+      <c r="AL9" s="19">
+        <v>2</v>
+      </c>
+      <c r="AM9" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN9" s="20">
         <v>1</v>
       </c>
-      <c r="AI9">
-        <v>3</v>
-      </c>
-      <c r="AJ9">
-        <v>3</v>
-      </c>
-      <c r="AM9" s="19">
-        <v>2</v>
-      </c>
-      <c r="AN9" s="20" t="s">
-        <v>79</v>
-      </c>
       <c r="AO9" s="20">
-        <v>1</v>
-      </c>
-      <c r="AP9" s="20">
-        <v>3</v>
-      </c>
-      <c r="AQ9" s="21">
+        <v>3</v>
+      </c>
+      <c r="AP9" s="21">
         <v>4</v>
+      </c>
+      <c r="AR9" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1647,85 +1715,85 @@
         <v>44207</v>
       </c>
       <c r="D10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
+      <c r="K10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="L10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M10" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R10" s="15" t="s">
-        <v>51</v>
+      <c r="R10" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="U10" t="s">
         <v>29</v>
       </c>
       <c r="V10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W10" t="s">
-        <v>30</v>
-      </c>
-      <c r="X10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>38</v>
       </c>
       <c r="AD10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="AF10">
+        <v>3</v>
       </c>
       <c r="AG10">
         <v>3</v>
       </c>
       <c r="AH10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="19">
+        <v>3</v>
+      </c>
+      <c r="AM10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="20">
         <v>5</v>
       </c>
-      <c r="AJ10">
-        <v>1</v>
-      </c>
-      <c r="AM10" s="19">
-        <v>3</v>
-      </c>
-      <c r="AN10" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AO10" s="20">
-        <v>1</v>
-      </c>
-      <c r="AP10" s="20">
-        <v>5</v>
-      </c>
-      <c r="AQ10" s="21">
-        <v>3</v>
+      <c r="AP10" s="21">
+        <v>3</v>
+      </c>
+      <c r="AR10" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1734,19 +1802,19 @@
         <v>44207</v>
       </c>
       <c r="D11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R11" s="15" t="s">
-        <v>51</v>
+        <v>24</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>27</v>
@@ -1754,63 +1822,60 @@
       <c r="T11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="U11" t="s">
         <v>29</v>
       </c>
       <c r="V11" t="s">
+        <v>29</v>
+      </c>
+      <c r="W11" t="s">
+        <v>61</v>
+      </c>
+      <c r="X11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC11" t="s">
         <v>30</v>
-      </c>
-      <c r="W11" t="s">
-        <v>30</v>
-      </c>
-      <c r="X11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>62</v>
       </c>
       <c r="AD11" t="s">
         <v>31</v>
       </c>
       <c r="AE11" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AH11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AI11">
         <v>3</v>
       </c>
-      <c r="AJ11">
-        <v>3</v>
-      </c>
-      <c r="AM11" s="19">
-        <v>3</v>
-      </c>
-      <c r="AN11" s="20" t="s">
-        <v>88</v>
+      <c r="AL11" s="19">
+        <v>3</v>
+      </c>
+      <c r="AM11" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN11" s="20">
+        <v>4</v>
       </c>
       <c r="AO11" s="20">
-        <v>4</v>
-      </c>
-      <c r="AP11" s="20">
         <v>2</v>
       </c>
-      <c r="AQ11" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="C12" s="1"/>
+      <c r="AP11" s="21">
+        <v>3</v>
+      </c>
+      <c r="AR11" s="15" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
